--- a/DatasetS1_dentition.xlsx
+++ b/DatasetS1_dentition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DanielPaluh/Dropbox (UFL)/Edentulous_frogs/submission/final data and scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DanielPaluh/Dropbox (UFL)/Edentulous_frogs/Revision_ready/final data and scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478DD167-C631-D940-B7F7-DEF9C6912190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D82C005-AC71-EB43-8DD2-430C95865CAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{BEC4CB36-D627-024D-94D6-84280A0FD2DF}"/>
+    <workbookView xWindow="4120" yWindow="460" windowWidth="28800" windowHeight="21140" xr2:uid="{BEC4CB36-D627-024D-94D6-84280A0FD2DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Amphibians_524species" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7892" uniqueCount="2257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7892" uniqueCount="2259">
   <si>
     <t>Genus</t>
   </si>
@@ -6814,13 +6814,19 @@
   </si>
   <si>
     <t>upload.in.progress</t>
+  </si>
+  <si>
+    <t>UF:Herp:187273</t>
+  </si>
+  <si>
+    <t>cas:herp:147040</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6878,13 +6884,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -6921,6 +6920,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6943,7 +6955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6964,22 +6976,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7297,11 +7310,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9FADE6-11E4-C04D-B56E-08B51DB76464}">
   <dimension ref="A1:N555"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="94" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="D499" sqref="D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7473,7 +7486,7 @@
       <c r="L4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="22" t="s">
         <v>2255</v>
       </c>
     </row>
@@ -7514,7 +7527,7 @@
       <c r="L5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -20940,8 +20953,8 @@
       <c r="C359" s="4" t="s">
         <v>1553</v>
       </c>
-      <c r="D359" s="17" t="s">
-        <v>1554</v>
+      <c r="D359" s="24" t="s">
+        <v>2258</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>146</v>
@@ -21621,7 +21634,7 @@
       <c r="B377" s="3" t="s">
         <v>1626</v>
       </c>
-      <c r="C377" s="18" t="s">
+      <c r="C377" s="17" t="s">
         <v>1627</v>
       </c>
       <c r="D377" s="1" t="s">
@@ -21890,8 +21903,8 @@
       <c r="C384" s="3" t="s">
         <v>1656</v>
       </c>
-      <c r="D384" s="1" t="s">
-        <v>1657</v>
+      <c r="D384" s="23" t="s">
+        <v>2257</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>13</v>
@@ -38602,7 +38615,7 @@
       <c r="B310" s="3" t="s">
         <v>1626</v>
       </c>
-      <c r="C310" s="18" t="s">
+      <c r="C310" s="17" t="s">
         <v>1627</v>
       </c>
       <c r="D310" s="1" t="s">
@@ -43269,28 +43282,28 @@
       <c r="G1" s="12" t="s">
         <v>2238</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>2241</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>2242</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>2247</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>2243</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>2253</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>2244</v>
       </c>
     </row>
@@ -43301,10 +43314,10 @@
       <c r="B2" s="12" t="s">
         <v>1552</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>1553</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>1554</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -43314,28 +43327,28 @@
         <v>327</v>
       </c>
       <c r="G2" s="12"/>
-      <c r="H2" s="19">
-        <v>1</v>
-      </c>
-      <c r="I2" s="19">
-        <v>1</v>
-      </c>
-      <c r="J2" s="19">
-        <v>1</v>
-      </c>
-      <c r="K2" s="19">
-        <v>1</v>
-      </c>
-      <c r="L2" s="19">
-        <v>0</v>
-      </c>
-      <c r="M2" s="19">
-        <v>0</v>
-      </c>
-      <c r="N2" s="19">
-        <v>0</v>
-      </c>
-      <c r="O2" s="19">
+      <c r="H2" s="18">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18">
+        <v>1</v>
+      </c>
+      <c r="J2" s="18">
+        <v>1</v>
+      </c>
+      <c r="K2" s="18">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
+      <c r="N2" s="18">
+        <v>0</v>
+      </c>
+      <c r="O2" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43361,28 +43374,28 @@
       <c r="G3" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19">
-        <v>1</v>
-      </c>
-      <c r="J3" s="19">
-        <v>1</v>
-      </c>
-      <c r="K3" s="19">
-        <v>1</v>
-      </c>
-      <c r="L3" s="19">
-        <v>0</v>
-      </c>
-      <c r="M3" s="19">
-        <v>0</v>
-      </c>
-      <c r="N3" s="19">
-        <v>0</v>
-      </c>
-      <c r="O3" s="19">
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0</v>
+      </c>
+      <c r="O3" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43408,28 +43421,28 @@
       <c r="G4" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="19">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19">
-        <v>1</v>
-      </c>
-      <c r="J4" s="19">
-        <v>1</v>
-      </c>
-      <c r="K4" s="19">
-        <v>1</v>
-      </c>
-      <c r="L4" s="19">
-        <v>0</v>
-      </c>
-      <c r="M4" s="19">
-        <v>0</v>
-      </c>
-      <c r="N4" s="19">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19">
+      <c r="H4" s="18">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43455,28 +43468,28 @@
       <c r="G5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19">
-        <v>1</v>
-      </c>
-      <c r="L5" s="19">
-        <v>1</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-      <c r="N5" s="19">
-        <v>0</v>
-      </c>
-      <c r="O5" s="19">
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18">
+        <v>1</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43502,28 +43515,28 @@
       <c r="G6" s="6" t="s">
         <v>1795</v>
       </c>
-      <c r="H6" s="19">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19">
-        <v>1</v>
-      </c>
-      <c r="J6" s="19">
-        <v>1</v>
-      </c>
-      <c r="K6" s="19">
-        <v>1</v>
-      </c>
-      <c r="L6" s="19">
-        <v>1</v>
-      </c>
-      <c r="M6" s="19">
-        <v>0</v>
-      </c>
-      <c r="N6" s="19">
-        <v>0</v>
-      </c>
-      <c r="O6" s="19">
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18">
+        <v>1</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0</v>
+      </c>
+      <c r="O6" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43549,28 +43562,28 @@
       <c r="G7" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-      <c r="L7" s="19">
-        <v>1</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="19">
-        <v>0</v>
-      </c>
-      <c r="O7" s="19">
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18">
+        <v>1</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43596,28 +43609,28 @@
       <c r="G8" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="H8" s="19">
-        <v>1</v>
-      </c>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="19">
-        <v>1</v>
-      </c>
-      <c r="K8" s="19">
-        <v>1</v>
-      </c>
-      <c r="L8" s="19">
-        <v>0</v>
-      </c>
-      <c r="M8" s="19">
-        <v>0</v>
-      </c>
-      <c r="N8" s="19">
-        <v>0</v>
-      </c>
-      <c r="O8" s="19">
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43643,28 +43656,28 @@
       <c r="G9" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19">
-        <v>1</v>
-      </c>
-      <c r="L9" s="19">
-        <v>1</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0</v>
-      </c>
-      <c r="N9" s="19">
-        <v>0</v>
-      </c>
-      <c r="O9" s="19">
+      <c r="H9" s="18">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18">
+        <v>1</v>
+      </c>
+      <c r="L9" s="18">
+        <v>1</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0</v>
+      </c>
+      <c r="O9" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43690,28 +43703,28 @@
       <c r="G10" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="H10" s="19">
-        <v>1</v>
-      </c>
-      <c r="I10" s="19">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19">
-        <v>1</v>
-      </c>
-      <c r="K10" s="19">
-        <v>1</v>
-      </c>
-      <c r="L10" s="19">
-        <v>1</v>
-      </c>
-      <c r="M10" s="19">
-        <v>0</v>
-      </c>
-      <c r="N10" s="19">
-        <v>0</v>
-      </c>
-      <c r="O10" s="19">
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
+      <c r="J10" s="18">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1</v>
+      </c>
+      <c r="L10" s="18">
+        <v>1</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0</v>
+      </c>
+      <c r="N10" s="18">
+        <v>0</v>
+      </c>
+      <c r="O10" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43737,28 +43750,28 @@
       <c r="G11" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1</v>
-      </c>
-      <c r="L11" s="19">
-        <v>0</v>
-      </c>
-      <c r="M11" s="19">
-        <v>0</v>
-      </c>
-      <c r="N11" s="19">
-        <v>0</v>
-      </c>
-      <c r="O11" s="19">
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
+        <v>1</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
+      <c r="N11" s="18">
+        <v>0</v>
+      </c>
+      <c r="O11" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43784,28 +43797,28 @@
       <c r="G12" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="H12" s="19">
-        <v>1</v>
-      </c>
-      <c r="I12" s="19">
-        <v>1</v>
-      </c>
-      <c r="J12" s="19">
-        <v>1</v>
-      </c>
-      <c r="K12" s="19">
-        <v>1</v>
-      </c>
-      <c r="L12" s="19">
-        <v>0</v>
-      </c>
-      <c r="M12" s="19">
-        <v>0</v>
-      </c>
-      <c r="N12" s="19">
-        <v>0</v>
-      </c>
-      <c r="O12" s="19">
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1</v>
+      </c>
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0</v>
+      </c>
+      <c r="N12" s="18">
+        <v>0</v>
+      </c>
+      <c r="O12" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43831,28 +43844,28 @@
       <c r="G13" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19">
-        <v>1</v>
-      </c>
-      <c r="L13" s="19">
-        <v>1</v>
-      </c>
-      <c r="M13" s="19">
-        <v>0</v>
-      </c>
-      <c r="N13" s="19">
-        <v>0</v>
-      </c>
-      <c r="O13" s="19">
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1</v>
+      </c>
+      <c r="L13" s="18">
+        <v>1</v>
+      </c>
+      <c r="M13" s="18">
+        <v>0</v>
+      </c>
+      <c r="N13" s="18">
+        <v>0</v>
+      </c>
+      <c r="O13" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43878,28 +43891,28 @@
       <c r="G14" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="H14" s="19">
-        <v>1</v>
-      </c>
-      <c r="I14" s="19">
-        <v>1</v>
-      </c>
-      <c r="J14" s="19">
-        <v>1</v>
-      </c>
-      <c r="K14" s="19">
-        <v>1</v>
-      </c>
-      <c r="L14" s="19">
-        <v>1</v>
-      </c>
-      <c r="M14" s="19">
-        <v>0</v>
-      </c>
-      <c r="N14" s="19">
-        <v>0</v>
-      </c>
-      <c r="O14" s="19">
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1</v>
+      </c>
+      <c r="L14" s="18">
+        <v>1</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0</v>
+      </c>
+      <c r="N14" s="18">
+        <v>0</v>
+      </c>
+      <c r="O14" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43925,28 +43938,28 @@
       <c r="G15" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1</v>
-      </c>
-      <c r="K15" s="19">
-        <v>1</v>
-      </c>
-      <c r="L15" s="19">
-        <v>0</v>
-      </c>
-      <c r="M15" s="19">
-        <v>0</v>
-      </c>
-      <c r="N15" s="19">
-        <v>0</v>
-      </c>
-      <c r="O15" s="19">
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
+        <v>0</v>
+      </c>
+      <c r="N15" s="18">
+        <v>0</v>
+      </c>
+      <c r="O15" s="18">
         <v>0</v>
       </c>
     </row>
@@ -43966,34 +43979,34 @@
       <c r="E16" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="H16" s="19">
-        <v>1</v>
-      </c>
-      <c r="I16" s="19">
-        <v>1</v>
-      </c>
-      <c r="J16" s="19">
-        <v>1</v>
-      </c>
-      <c r="K16" s="19">
-        <v>1</v>
-      </c>
-      <c r="L16" s="19">
-        <v>1</v>
-      </c>
-      <c r="M16" s="19">
-        <v>0</v>
-      </c>
-      <c r="N16" s="19">
-        <v>0</v>
-      </c>
-      <c r="O16" s="19">
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1</v>
+      </c>
+      <c r="K16" s="18">
+        <v>1</v>
+      </c>
+      <c r="L16" s="18">
+        <v>1</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0</v>
+      </c>
+      <c r="N16" s="18">
+        <v>0</v>
+      </c>
+      <c r="O16" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44013,34 +44026,34 @@
       <c r="E17" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
-        <v>1</v>
-      </c>
-      <c r="L17" s="19">
-        <v>1</v>
-      </c>
-      <c r="M17" s="19">
-        <v>0</v>
-      </c>
-      <c r="N17" s="19">
-        <v>0</v>
-      </c>
-      <c r="O17" s="19">
+      <c r="H17" s="18">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1</v>
+      </c>
+      <c r="K17" s="18">
+        <v>1</v>
+      </c>
+      <c r="L17" s="18">
+        <v>1</v>
+      </c>
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0</v>
+      </c>
+      <c r="O17" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44060,34 +44073,34 @@
       <c r="E18" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>2245</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="H18" s="19">
-        <v>1</v>
-      </c>
-      <c r="I18" s="19">
-        <v>1</v>
-      </c>
-      <c r="J18" s="19">
-        <v>1</v>
-      </c>
-      <c r="K18" s="19">
-        <v>1</v>
-      </c>
-      <c r="L18" s="19">
-        <v>0</v>
-      </c>
-      <c r="M18" s="19">
-        <v>0</v>
-      </c>
-      <c r="N18" s="19">
-        <v>0</v>
-      </c>
-      <c r="O18" s="19">
+      <c r="H18" s="18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44113,28 +44126,28 @@
       <c r="G19" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19">
-        <v>1</v>
-      </c>
-      <c r="L19" s="19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="19">
-        <v>0</v>
-      </c>
-      <c r="O19" s="19">
+      <c r="H19" s="18">
+        <v>1</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <v>1</v>
+      </c>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
+      <c r="L19" s="18">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19" s="18">
+        <v>0</v>
+      </c>
+      <c r="O19" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44154,34 +44167,34 @@
       <c r="E20" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="H20" s="19">
-        <v>1</v>
-      </c>
-      <c r="I20" s="19">
-        <v>1</v>
-      </c>
-      <c r="J20" s="19">
-        <v>1</v>
-      </c>
-      <c r="K20" s="19">
-        <v>1</v>
-      </c>
-      <c r="L20" s="19">
-        <v>1</v>
-      </c>
-      <c r="M20" s="19">
-        <v>0</v>
-      </c>
-      <c r="N20" s="19">
-        <v>0</v>
-      </c>
-      <c r="O20" s="19">
+      <c r="H20" s="18">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
+      <c r="J20" s="18">
+        <v>1</v>
+      </c>
+      <c r="K20" s="18">
+        <v>1</v>
+      </c>
+      <c r="L20" s="18">
+        <v>1</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0</v>
+      </c>
+      <c r="N20" s="18">
+        <v>0</v>
+      </c>
+      <c r="O20" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44201,34 +44214,34 @@
       <c r="E21" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>435</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="H21" s="19">
-        <v>1</v>
-      </c>
-      <c r="I21" s="19">
-        <v>1</v>
-      </c>
-      <c r="J21" s="19">
-        <v>1</v>
-      </c>
-      <c r="K21" s="19">
-        <v>1</v>
-      </c>
-      <c r="L21" s="19">
-        <v>0</v>
-      </c>
-      <c r="M21" s="19">
-        <v>0</v>
-      </c>
-      <c r="N21" s="19">
-        <v>0</v>
-      </c>
-      <c r="O21" s="19">
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
+      <c r="L21" s="18">
+        <v>0</v>
+      </c>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+      <c r="N21" s="18">
+        <v>0</v>
+      </c>
+      <c r="O21" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44248,34 +44261,34 @@
       <c r="E22" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="H22" s="19">
-        <v>1</v>
-      </c>
-      <c r="I22" s="19">
-        <v>1</v>
-      </c>
-      <c r="J22" s="19">
-        <v>1</v>
-      </c>
-      <c r="K22" s="19">
-        <v>1</v>
-      </c>
-      <c r="L22" s="19">
-        <v>1</v>
-      </c>
-      <c r="M22" s="19">
-        <v>0</v>
-      </c>
-      <c r="N22" s="19">
-        <v>0</v>
-      </c>
-      <c r="O22" s="19">
+      <c r="H22" s="18">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+      <c r="J22" s="18">
+        <v>1</v>
+      </c>
+      <c r="K22" s="18">
+        <v>1</v>
+      </c>
+      <c r="L22" s="18">
+        <v>1</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0</v>
+      </c>
+      <c r="N22" s="18">
+        <v>0</v>
+      </c>
+      <c r="O22" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44295,34 +44308,34 @@
       <c r="E23" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="H23" s="19">
-        <v>1</v>
-      </c>
-      <c r="I23" s="19">
-        <v>1</v>
-      </c>
-      <c r="J23" s="19">
-        <v>1</v>
-      </c>
-      <c r="K23" s="19">
-        <v>1</v>
-      </c>
-      <c r="L23" s="19">
-        <v>0</v>
-      </c>
-      <c r="M23" s="19">
-        <v>0</v>
-      </c>
-      <c r="N23" s="19">
-        <v>0</v>
-      </c>
-      <c r="O23" s="19">
+      <c r="H23" s="18">
+        <v>1</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1</v>
+      </c>
+      <c r="K23" s="18">
+        <v>1</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0</v>
+      </c>
+      <c r="M23" s="18">
+        <v>0</v>
+      </c>
+      <c r="N23" s="18">
+        <v>0</v>
+      </c>
+      <c r="O23" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44342,34 +44355,34 @@
       <c r="E24" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="H24" s="19">
-        <v>1</v>
-      </c>
-      <c r="I24" s="19">
-        <v>1</v>
-      </c>
-      <c r="J24" s="19">
-        <v>1</v>
-      </c>
-      <c r="K24" s="19">
-        <v>1</v>
-      </c>
-      <c r="L24" s="19">
-        <v>1</v>
-      </c>
-      <c r="M24" s="19">
-        <v>0</v>
-      </c>
-      <c r="N24" s="19">
-        <v>0</v>
-      </c>
-      <c r="O24" s="19">
+      <c r="H24" s="18">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18">
+        <v>1</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1</v>
+      </c>
+      <c r="L24" s="18">
+        <v>1</v>
+      </c>
+      <c r="M24" s="18">
+        <v>0</v>
+      </c>
+      <c r="N24" s="18">
+        <v>0</v>
+      </c>
+      <c r="O24" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44389,34 +44402,34 @@
       <c r="E25" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="H25" s="19">
-        <v>1</v>
-      </c>
-      <c r="I25" s="19">
-        <v>1</v>
-      </c>
-      <c r="J25" s="19">
-        <v>1</v>
-      </c>
-      <c r="K25" s="19">
-        <v>1</v>
-      </c>
-      <c r="L25" s="19">
-        <v>1</v>
-      </c>
-      <c r="M25" s="19">
-        <v>0</v>
-      </c>
-      <c r="N25" s="19">
-        <v>0</v>
-      </c>
-      <c r="O25" s="19">
+      <c r="H25" s="18">
+        <v>1</v>
+      </c>
+      <c r="I25" s="18">
+        <v>1</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
+      <c r="L25" s="18">
+        <v>1</v>
+      </c>
+      <c r="M25" s="18">
+        <v>0</v>
+      </c>
+      <c r="N25" s="18">
+        <v>0</v>
+      </c>
+      <c r="O25" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44436,34 +44449,34 @@
       <c r="E26" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>327</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="H26" s="19">
-        <v>1</v>
-      </c>
-      <c r="I26" s="19">
-        <v>1</v>
-      </c>
-      <c r="J26" s="19">
-        <v>1</v>
-      </c>
-      <c r="K26" s="19">
-        <v>1</v>
-      </c>
-      <c r="L26" s="19">
-        <v>0</v>
-      </c>
-      <c r="M26" s="19">
-        <v>0</v>
-      </c>
-      <c r="N26" s="19">
-        <v>0</v>
-      </c>
-      <c r="O26" s="19">
+      <c r="H26" s="18">
+        <v>1</v>
+      </c>
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1</v>
+      </c>
+      <c r="K26" s="18">
+        <v>1</v>
+      </c>
+      <c r="L26" s="18">
+        <v>0</v>
+      </c>
+      <c r="M26" s="18">
+        <v>0</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0</v>
+      </c>
+      <c r="O26" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44483,34 +44496,34 @@
       <c r="E27" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>435</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>1056</v>
       </c>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="19">
-        <v>1</v>
-      </c>
-      <c r="J27" s="19">
-        <v>1</v>
-      </c>
-      <c r="K27" s="19">
-        <v>1</v>
-      </c>
-      <c r="L27" s="19">
-        <v>0</v>
-      </c>
-      <c r="M27" s="19">
-        <v>0</v>
-      </c>
-      <c r="N27" s="19">
-        <v>0</v>
-      </c>
-      <c r="O27" s="19">
+      <c r="H27" s="18">
+        <v>1</v>
+      </c>
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1</v>
+      </c>
+      <c r="K27" s="18">
+        <v>1</v>
+      </c>
+      <c r="L27" s="18">
+        <v>0</v>
+      </c>
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
+      <c r="N27" s="18">
+        <v>0</v>
+      </c>
+      <c r="O27" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44530,32 +44543,32 @@
       <c r="E28" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G28" s="12"/>
-      <c r="H28" s="19">
-        <v>1</v>
-      </c>
-      <c r="I28" s="19">
-        <v>1</v>
-      </c>
-      <c r="J28" s="19">
-        <v>1</v>
-      </c>
-      <c r="K28" s="19">
-        <v>1</v>
-      </c>
-      <c r="L28" s="19">
-        <v>1</v>
-      </c>
-      <c r="M28" s="19">
-        <v>0</v>
-      </c>
-      <c r="N28" s="19">
-        <v>0</v>
-      </c>
-      <c r="O28" s="19">
+      <c r="H28" s="18">
+        <v>1</v>
+      </c>
+      <c r="I28" s="18">
+        <v>1</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1</v>
+      </c>
+      <c r="K28" s="18">
+        <v>1</v>
+      </c>
+      <c r="L28" s="18">
+        <v>1</v>
+      </c>
+      <c r="M28" s="18">
+        <v>0</v>
+      </c>
+      <c r="N28" s="18">
+        <v>0</v>
+      </c>
+      <c r="O28" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44581,28 +44594,28 @@
       <c r="G29" s="6" t="s">
         <v>1119</v>
       </c>
-      <c r="H29" s="19">
-        <v>1</v>
-      </c>
-      <c r="I29" s="19">
-        <v>1</v>
-      </c>
-      <c r="J29" s="19">
-        <v>1</v>
-      </c>
-      <c r="K29" s="19">
-        <v>1</v>
-      </c>
-      <c r="L29" s="19">
-        <v>1</v>
-      </c>
-      <c r="M29" s="19">
-        <v>0</v>
-      </c>
-      <c r="N29" s="19">
-        <v>0</v>
-      </c>
-      <c r="O29" s="19">
+      <c r="H29" s="18">
+        <v>1</v>
+      </c>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1</v>
+      </c>
+      <c r="L29" s="18">
+        <v>1</v>
+      </c>
+      <c r="M29" s="18">
+        <v>0</v>
+      </c>
+      <c r="N29" s="18">
+        <v>0</v>
+      </c>
+      <c r="O29" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44628,28 +44641,28 @@
       <c r="G30" s="6" t="s">
         <v>1161</v>
       </c>
-      <c r="H30" s="19">
-        <v>1</v>
-      </c>
-      <c r="I30" s="19">
-        <v>1</v>
-      </c>
-      <c r="J30" s="19">
-        <v>1</v>
-      </c>
-      <c r="K30" s="19">
-        <v>1</v>
-      </c>
-      <c r="L30" s="19">
-        <v>0</v>
-      </c>
-      <c r="M30" s="19">
-        <v>0</v>
-      </c>
-      <c r="N30" s="19">
-        <v>0</v>
-      </c>
-      <c r="O30" s="19">
+      <c r="H30" s="18">
+        <v>1</v>
+      </c>
+      <c r="I30" s="18">
+        <v>1</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1</v>
+      </c>
+      <c r="K30" s="18">
+        <v>1</v>
+      </c>
+      <c r="L30" s="18">
+        <v>0</v>
+      </c>
+      <c r="M30" s="18">
+        <v>0</v>
+      </c>
+      <c r="N30" s="18">
+        <v>0</v>
+      </c>
+      <c r="O30" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44675,28 +44688,28 @@
       <c r="G31" s="6" t="s">
         <v>1222</v>
       </c>
-      <c r="H31" s="19">
-        <v>1</v>
-      </c>
-      <c r="I31" s="19">
-        <v>1</v>
-      </c>
-      <c r="J31" s="19">
-        <v>1</v>
-      </c>
-      <c r="K31" s="19">
-        <v>1</v>
-      </c>
-      <c r="L31" s="19">
-        <v>0</v>
-      </c>
-      <c r="M31" s="19">
-        <v>0</v>
-      </c>
-      <c r="N31" s="19">
-        <v>0</v>
-      </c>
-      <c r="O31" s="19">
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+      <c r="I31" s="18">
+        <v>1</v>
+      </c>
+      <c r="J31" s="18">
+        <v>1</v>
+      </c>
+      <c r="K31" s="18">
+        <v>1</v>
+      </c>
+      <c r="L31" s="18">
+        <v>0</v>
+      </c>
+      <c r="M31" s="18">
+        <v>0</v>
+      </c>
+      <c r="N31" s="18">
+        <v>0</v>
+      </c>
+      <c r="O31" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44722,28 +44735,28 @@
       <c r="G32" s="6" t="s">
         <v>1240</v>
       </c>
-      <c r="H32" s="19">
-        <v>1</v>
-      </c>
-      <c r="I32" s="19">
-        <v>1</v>
-      </c>
-      <c r="J32" s="19">
-        <v>1</v>
-      </c>
-      <c r="K32" s="19">
-        <v>1</v>
-      </c>
-      <c r="L32" s="19">
-        <v>0</v>
-      </c>
-      <c r="M32" s="19">
-        <v>0</v>
-      </c>
-      <c r="N32" s="19">
-        <v>0</v>
-      </c>
-      <c r="O32" s="19">
+      <c r="H32" s="18">
+        <v>1</v>
+      </c>
+      <c r="I32" s="18">
+        <v>1</v>
+      </c>
+      <c r="J32" s="18">
+        <v>1</v>
+      </c>
+      <c r="K32" s="18">
+        <v>1</v>
+      </c>
+      <c r="L32" s="18">
+        <v>0</v>
+      </c>
+      <c r="M32" s="18">
+        <v>0</v>
+      </c>
+      <c r="N32" s="18">
+        <v>0</v>
+      </c>
+      <c r="O32" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44763,34 +44776,34 @@
       <c r="E33" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="19" t="s">
         <v>435</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>1247</v>
       </c>
-      <c r="H33" s="19">
-        <v>1</v>
-      </c>
-      <c r="I33" s="19">
-        <v>1</v>
-      </c>
-      <c r="J33" s="19">
-        <v>1</v>
-      </c>
-      <c r="K33" s="19">
-        <v>1</v>
-      </c>
-      <c r="L33" s="19">
-        <v>0</v>
-      </c>
-      <c r="M33" s="19">
-        <v>0</v>
-      </c>
-      <c r="N33" s="19">
-        <v>0</v>
-      </c>
-      <c r="O33" s="19">
+      <c r="H33" s="18">
+        <v>1</v>
+      </c>
+      <c r="I33" s="18">
+        <v>1</v>
+      </c>
+      <c r="J33" s="18">
+        <v>1</v>
+      </c>
+      <c r="K33" s="18">
+        <v>1</v>
+      </c>
+      <c r="L33" s="18">
+        <v>0</v>
+      </c>
+      <c r="M33" s="18">
+        <v>0</v>
+      </c>
+      <c r="N33" s="18">
+        <v>0</v>
+      </c>
+      <c r="O33" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44810,34 +44823,34 @@
       <c r="E34" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="19" t="s">
         <v>435</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>1299</v>
       </c>
-      <c r="H34" s="19">
-        <v>1</v>
-      </c>
-      <c r="I34" s="19">
-        <v>1</v>
-      </c>
-      <c r="J34" s="19">
-        <v>1</v>
-      </c>
-      <c r="K34" s="19">
-        <v>1</v>
-      </c>
-      <c r="L34" s="19">
-        <v>0</v>
-      </c>
-      <c r="M34" s="19">
-        <v>0</v>
-      </c>
-      <c r="N34" s="19">
-        <v>0</v>
-      </c>
-      <c r="O34" s="19">
+      <c r="H34" s="18">
+        <v>1</v>
+      </c>
+      <c r="I34" s="18">
+        <v>1</v>
+      </c>
+      <c r="J34" s="18">
+        <v>1</v>
+      </c>
+      <c r="K34" s="18">
+        <v>1</v>
+      </c>
+      <c r="L34" s="18">
+        <v>0</v>
+      </c>
+      <c r="M34" s="18">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0</v>
+      </c>
+      <c r="O34" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44863,28 +44876,28 @@
       <c r="G35" s="6" t="s">
         <v>2195</v>
       </c>
-      <c r="H35" s="19">
-        <v>1</v>
-      </c>
-      <c r="I35" s="19">
-        <v>1</v>
-      </c>
-      <c r="J35" s="19">
-        <v>1</v>
-      </c>
-      <c r="K35" s="19">
-        <v>1</v>
-      </c>
-      <c r="L35" s="19">
-        <v>1</v>
-      </c>
-      <c r="M35" s="19">
-        <v>0</v>
-      </c>
-      <c r="N35" s="19">
-        <v>0</v>
-      </c>
-      <c r="O35" s="19">
+      <c r="H35" s="18">
+        <v>1</v>
+      </c>
+      <c r="I35" s="18">
+        <v>1</v>
+      </c>
+      <c r="J35" s="18">
+        <v>1</v>
+      </c>
+      <c r="K35" s="18">
+        <v>1</v>
+      </c>
+      <c r="L35" s="18">
+        <v>1</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0</v>
+      </c>
+      <c r="N35" s="18">
+        <v>0</v>
+      </c>
+      <c r="O35" s="18">
         <v>0</v>
       </c>
     </row>
@@ -44904,34 +44917,34 @@
       <c r="E36" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="19" t="s">
         <v>1397</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>1398</v>
       </c>
-      <c r="H36" s="19">
-        <v>1</v>
-      </c>
-      <c r="I36" s="19">
-        <v>0</v>
-      </c>
-      <c r="J36" s="19">
-        <v>1</v>
-      </c>
-      <c r="K36" s="19">
-        <v>1</v>
-      </c>
-      <c r="L36" s="19">
-        <v>0</v>
-      </c>
-      <c r="M36" s="19">
-        <v>0</v>
-      </c>
-      <c r="N36" s="19">
-        <v>1</v>
-      </c>
-      <c r="O36" s="19">
+      <c r="H36" s="18">
+        <v>1</v>
+      </c>
+      <c r="I36" s="18">
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
+        <v>1</v>
+      </c>
+      <c r="K36" s="18">
+        <v>1</v>
+      </c>
+      <c r="L36" s="18">
+        <v>0</v>
+      </c>
+      <c r="M36" s="18">
+        <v>0</v>
+      </c>
+      <c r="N36" s="18">
+        <v>1</v>
+      </c>
+      <c r="O36" s="18">
         <v>1</v>
       </c>
     </row>
@@ -44957,28 +44970,28 @@
       <c r="G37" s="6" t="s">
         <v>1406</v>
       </c>
-      <c r="H37" s="19">
-        <v>1</v>
-      </c>
-      <c r="I37" s="19">
-        <v>1</v>
-      </c>
-      <c r="J37" s="19">
-        <v>1</v>
-      </c>
-      <c r="K37" s="19">
-        <v>1</v>
-      </c>
-      <c r="L37" s="19">
-        <v>0</v>
-      </c>
-      <c r="M37" s="19">
-        <v>0</v>
-      </c>
-      <c r="N37" s="19">
-        <v>0</v>
-      </c>
-      <c r="O37" s="19">
+      <c r="H37" s="18">
+        <v>1</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1</v>
+      </c>
+      <c r="J37" s="18">
+        <v>1</v>
+      </c>
+      <c r="K37" s="18">
+        <v>1</v>
+      </c>
+      <c r="L37" s="18">
+        <v>0</v>
+      </c>
+      <c r="M37" s="18">
+        <v>0</v>
+      </c>
+      <c r="N37" s="18">
+        <v>0</v>
+      </c>
+      <c r="O37" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45004,28 +45017,28 @@
       <c r="G38" s="6" t="s">
         <v>1426</v>
       </c>
-      <c r="H38" s="19">
-        <v>1</v>
-      </c>
-      <c r="I38" s="19">
-        <v>1</v>
-      </c>
-      <c r="J38" s="19">
-        <v>1</v>
-      </c>
-      <c r="K38" s="19">
-        <v>1</v>
-      </c>
-      <c r="L38" s="19">
-        <v>0</v>
-      </c>
-      <c r="M38" s="19">
-        <v>0</v>
-      </c>
-      <c r="N38" s="19">
-        <v>0</v>
-      </c>
-      <c r="O38" s="19">
+      <c r="H38" s="18">
+        <v>1</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1</v>
+      </c>
+      <c r="K38" s="18">
+        <v>1</v>
+      </c>
+      <c r="L38" s="18">
+        <v>0</v>
+      </c>
+      <c r="M38" s="18">
+        <v>0</v>
+      </c>
+      <c r="N38" s="18">
+        <v>0</v>
+      </c>
+      <c r="O38" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45045,34 +45058,34 @@
       <c r="E39" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>1430</v>
       </c>
-      <c r="H39" s="19">
-        <v>1</v>
-      </c>
-      <c r="I39" s="19">
-        <v>1</v>
-      </c>
-      <c r="J39" s="19">
-        <v>1</v>
-      </c>
-      <c r="K39" s="19">
-        <v>1</v>
-      </c>
-      <c r="L39" s="19">
-        <v>1</v>
-      </c>
-      <c r="M39" s="19">
-        <v>0</v>
-      </c>
-      <c r="N39" s="19">
-        <v>0</v>
-      </c>
-      <c r="O39" s="19">
+      <c r="H39" s="18">
+        <v>1</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1</v>
+      </c>
+      <c r="J39" s="18">
+        <v>1</v>
+      </c>
+      <c r="K39" s="18">
+        <v>1</v>
+      </c>
+      <c r="L39" s="18">
+        <v>1</v>
+      </c>
+      <c r="M39" s="18">
+        <v>0</v>
+      </c>
+      <c r="N39" s="18">
+        <v>0</v>
+      </c>
+      <c r="O39" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45098,28 +45111,28 @@
       <c r="G40" s="6" t="s">
         <v>1434</v>
       </c>
-      <c r="H40" s="19">
-        <v>1</v>
-      </c>
-      <c r="I40" s="19">
-        <v>1</v>
-      </c>
-      <c r="J40" s="19">
-        <v>1</v>
-      </c>
-      <c r="K40" s="19">
-        <v>1</v>
-      </c>
-      <c r="L40" s="19">
-        <v>1</v>
-      </c>
-      <c r="M40" s="19">
-        <v>0</v>
-      </c>
-      <c r="N40" s="19">
-        <v>0</v>
-      </c>
-      <c r="O40" s="19">
+      <c r="H40" s="18">
+        <v>1</v>
+      </c>
+      <c r="I40" s="18">
+        <v>1</v>
+      </c>
+      <c r="J40" s="18">
+        <v>1</v>
+      </c>
+      <c r="K40" s="18">
+        <v>1</v>
+      </c>
+      <c r="L40" s="18">
+        <v>1</v>
+      </c>
+      <c r="M40" s="18">
+        <v>0</v>
+      </c>
+      <c r="N40" s="18">
+        <v>0</v>
+      </c>
+      <c r="O40" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45139,34 +45152,34 @@
       <c r="E41" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>1478</v>
       </c>
-      <c r="H41" s="19">
-        <v>1</v>
-      </c>
-      <c r="I41" s="19">
-        <v>1</v>
-      </c>
-      <c r="J41" s="19">
-        <v>1</v>
-      </c>
-      <c r="K41" s="19">
-        <v>1</v>
-      </c>
-      <c r="L41" s="19">
-        <v>1</v>
-      </c>
-      <c r="M41" s="19">
-        <v>0</v>
-      </c>
-      <c r="N41" s="19">
-        <v>0</v>
-      </c>
-      <c r="O41" s="19">
+      <c r="H41" s="18">
+        <v>1</v>
+      </c>
+      <c r="I41" s="18">
+        <v>1</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1</v>
+      </c>
+      <c r="K41" s="18">
+        <v>1</v>
+      </c>
+      <c r="L41" s="18">
+        <v>1</v>
+      </c>
+      <c r="M41" s="18">
+        <v>0</v>
+      </c>
+      <c r="N41" s="18">
+        <v>0</v>
+      </c>
+      <c r="O41" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45192,28 +45205,28 @@
       <c r="G42" s="6" t="s">
         <v>1482</v>
       </c>
-      <c r="H42" s="19">
-        <v>1</v>
-      </c>
-      <c r="I42" s="19">
-        <v>1</v>
-      </c>
-      <c r="J42" s="19">
-        <v>1</v>
-      </c>
-      <c r="K42" s="19">
-        <v>1</v>
-      </c>
-      <c r="L42" s="19">
-        <v>0</v>
-      </c>
-      <c r="M42" s="19">
-        <v>0</v>
-      </c>
-      <c r="N42" s="19">
-        <v>0</v>
-      </c>
-      <c r="O42" s="19">
+      <c r="H42" s="18">
+        <v>1</v>
+      </c>
+      <c r="I42" s="18">
+        <v>1</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1</v>
+      </c>
+      <c r="K42" s="18">
+        <v>1</v>
+      </c>
+      <c r="L42" s="18">
+        <v>0</v>
+      </c>
+      <c r="M42" s="18">
+        <v>0</v>
+      </c>
+      <c r="N42" s="18">
+        <v>0</v>
+      </c>
+      <c r="O42" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45233,34 +45246,34 @@
       <c r="E43" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="19" t="s">
         <v>327</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>1486</v>
       </c>
-      <c r="H43" s="19">
-        <v>1</v>
-      </c>
-      <c r="I43" s="19">
-        <v>1</v>
-      </c>
-      <c r="J43" s="19">
-        <v>1</v>
-      </c>
-      <c r="K43" s="19">
-        <v>1</v>
-      </c>
-      <c r="L43" s="19">
-        <v>0</v>
-      </c>
-      <c r="M43" s="19">
-        <v>0</v>
-      </c>
-      <c r="N43" s="19">
-        <v>0</v>
-      </c>
-      <c r="O43" s="19">
+      <c r="H43" s="18">
+        <v>1</v>
+      </c>
+      <c r="I43" s="18">
+        <v>1</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1</v>
+      </c>
+      <c r="L43" s="18">
+        <v>0</v>
+      </c>
+      <c r="M43" s="18">
+        <v>0</v>
+      </c>
+      <c r="N43" s="18">
+        <v>0</v>
+      </c>
+      <c r="O43" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45286,28 +45299,28 @@
       <c r="G44" s="6" t="s">
         <v>1538</v>
       </c>
-      <c r="H44" s="19">
-        <v>1</v>
-      </c>
-      <c r="I44" s="19">
-        <v>1</v>
-      </c>
-      <c r="J44" s="19">
-        <v>1</v>
-      </c>
-      <c r="K44" s="19">
-        <v>1</v>
-      </c>
-      <c r="L44" s="19">
-        <v>0</v>
-      </c>
-      <c r="M44" s="19">
-        <v>0</v>
-      </c>
-      <c r="N44" s="19">
-        <v>0</v>
-      </c>
-      <c r="O44" s="19">
+      <c r="H44" s="18">
+        <v>1</v>
+      </c>
+      <c r="I44" s="18">
+        <v>1</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1</v>
+      </c>
+      <c r="L44" s="18">
+        <v>0</v>
+      </c>
+      <c r="M44" s="18">
+        <v>0</v>
+      </c>
+      <c r="N44" s="18">
+        <v>0</v>
+      </c>
+      <c r="O44" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45333,28 +45346,28 @@
       <c r="G45" s="6" t="s">
         <v>1558</v>
       </c>
-      <c r="H45" s="19">
-        <v>1</v>
-      </c>
-      <c r="I45" s="19">
-        <v>1</v>
-      </c>
-      <c r="J45" s="19">
-        <v>1</v>
-      </c>
-      <c r="K45" s="19">
-        <v>1</v>
-      </c>
-      <c r="L45" s="19">
-        <v>0</v>
-      </c>
-      <c r="M45" s="19">
-        <v>0</v>
-      </c>
-      <c r="N45" s="19">
-        <v>0</v>
-      </c>
-      <c r="O45" s="19">
+      <c r="H45" s="18">
+        <v>1</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1</v>
+      </c>
+      <c r="L45" s="18">
+        <v>0</v>
+      </c>
+      <c r="M45" s="18">
+        <v>0</v>
+      </c>
+      <c r="N45" s="18">
+        <v>0</v>
+      </c>
+      <c r="O45" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45380,28 +45393,28 @@
       <c r="G46" s="6" t="s">
         <v>1565</v>
       </c>
-      <c r="H46" s="19">
-        <v>1</v>
-      </c>
-      <c r="I46" s="19">
-        <v>1</v>
-      </c>
-      <c r="J46" s="19">
-        <v>1</v>
-      </c>
-      <c r="K46" s="19">
-        <v>1</v>
-      </c>
-      <c r="L46" s="19">
-        <v>0</v>
-      </c>
-      <c r="M46" s="19">
-        <v>0</v>
-      </c>
-      <c r="N46" s="19">
-        <v>0</v>
-      </c>
-      <c r="O46" s="19">
+      <c r="H46" s="18">
+        <v>1</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1</v>
+      </c>
+      <c r="L46" s="18">
+        <v>0</v>
+      </c>
+      <c r="M46" s="18">
+        <v>0</v>
+      </c>
+      <c r="N46" s="18">
+        <v>0</v>
+      </c>
+      <c r="O46" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45421,34 +45434,34 @@
       <c r="E47" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>1582</v>
       </c>
-      <c r="H47" s="19">
-        <v>1</v>
-      </c>
-      <c r="I47" s="19">
-        <v>1</v>
-      </c>
-      <c r="J47" s="19">
-        <v>1</v>
-      </c>
-      <c r="K47" s="19">
-        <v>1</v>
-      </c>
-      <c r="L47" s="19">
-        <v>1</v>
-      </c>
-      <c r="M47" s="19">
-        <v>0</v>
-      </c>
-      <c r="N47" s="19">
-        <v>0</v>
-      </c>
-      <c r="O47" s="19">
+      <c r="H47" s="18">
+        <v>1</v>
+      </c>
+      <c r="I47" s="18">
+        <v>1</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1</v>
+      </c>
+      <c r="L47" s="18">
+        <v>1</v>
+      </c>
+      <c r="M47" s="18">
+        <v>0</v>
+      </c>
+      <c r="N47" s="18">
+        <v>0</v>
+      </c>
+      <c r="O47" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45471,31 +45484,31 @@
       <c r="F48" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="21" t="s">
         <v>1621</v>
       </c>
-      <c r="H48" s="19">
-        <v>1</v>
-      </c>
-      <c r="I48" s="19">
-        <v>1</v>
-      </c>
-      <c r="J48" s="19">
-        <v>1</v>
-      </c>
-      <c r="K48" s="19">
-        <v>1</v>
-      </c>
-      <c r="L48" s="19">
-        <v>1</v>
-      </c>
-      <c r="M48" s="19">
-        <v>0</v>
-      </c>
-      <c r="N48" s="19">
-        <v>0</v>
-      </c>
-      <c r="O48" s="19">
+      <c r="H48" s="18">
+        <v>1</v>
+      </c>
+      <c r="I48" s="18">
+        <v>1</v>
+      </c>
+      <c r="J48" s="18">
+        <v>1</v>
+      </c>
+      <c r="K48" s="18">
+        <v>1</v>
+      </c>
+      <c r="L48" s="18">
+        <v>1</v>
+      </c>
+      <c r="M48" s="18">
+        <v>0</v>
+      </c>
+      <c r="N48" s="18">
+        <v>0</v>
+      </c>
+      <c r="O48" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45515,34 +45528,34 @@
       <c r="E49" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>1715</v>
       </c>
-      <c r="H49" s="19">
-        <v>1</v>
-      </c>
-      <c r="I49" s="19">
-        <v>1</v>
-      </c>
-      <c r="J49" s="19">
-        <v>1</v>
-      </c>
-      <c r="K49" s="19">
-        <v>1</v>
-      </c>
-      <c r="L49" s="19">
-        <v>1</v>
-      </c>
-      <c r="M49" s="19">
-        <v>0</v>
-      </c>
-      <c r="N49" s="19">
-        <v>0</v>
-      </c>
-      <c r="O49" s="19">
+      <c r="H49" s="18">
+        <v>1</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1</v>
+      </c>
+      <c r="J49" s="18">
+        <v>1</v>
+      </c>
+      <c r="K49" s="18">
+        <v>1</v>
+      </c>
+      <c r="L49" s="18">
+        <v>1</v>
+      </c>
+      <c r="M49" s="18">
+        <v>0</v>
+      </c>
+      <c r="N49" s="18">
+        <v>0</v>
+      </c>
+      <c r="O49" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45562,34 +45575,34 @@
       <c r="E50" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="19" t="s">
         <v>435</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>1719</v>
       </c>
-      <c r="H50" s="19">
-        <v>1</v>
-      </c>
-      <c r="I50" s="19">
-        <v>1</v>
-      </c>
-      <c r="J50" s="19">
-        <v>1</v>
-      </c>
-      <c r="K50" s="19">
-        <v>1</v>
-      </c>
-      <c r="L50" s="19">
-        <v>0</v>
-      </c>
-      <c r="M50" s="19">
-        <v>0</v>
-      </c>
-      <c r="N50" s="19">
-        <v>0</v>
-      </c>
-      <c r="O50" s="19">
+      <c r="H50" s="18">
+        <v>1</v>
+      </c>
+      <c r="I50" s="18">
+        <v>1</v>
+      </c>
+      <c r="J50" s="18">
+        <v>1</v>
+      </c>
+      <c r="K50" s="18">
+        <v>1</v>
+      </c>
+      <c r="L50" s="18">
+        <v>0</v>
+      </c>
+      <c r="M50" s="18">
+        <v>0</v>
+      </c>
+      <c r="N50" s="18">
+        <v>0</v>
+      </c>
+      <c r="O50" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45609,34 +45622,34 @@
       <c r="E51" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="19" t="s">
         <v>1397</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>1765</v>
       </c>
-      <c r="H51" s="19">
-        <v>1</v>
-      </c>
-      <c r="I51" s="19">
-        <v>0</v>
-      </c>
-      <c r="J51" s="19">
-        <v>1</v>
-      </c>
-      <c r="K51" s="19">
-        <v>1</v>
-      </c>
-      <c r="L51" s="19">
-        <v>0</v>
-      </c>
-      <c r="M51" s="19">
-        <v>0</v>
-      </c>
-      <c r="N51" s="19">
-        <v>1</v>
-      </c>
-      <c r="O51" s="19">
+      <c r="H51" s="18">
+        <v>1</v>
+      </c>
+      <c r="I51" s="18">
+        <v>0</v>
+      </c>
+      <c r="J51" s="18">
+        <v>1</v>
+      </c>
+      <c r="K51" s="18">
+        <v>1</v>
+      </c>
+      <c r="L51" s="18">
+        <v>0</v>
+      </c>
+      <c r="M51" s="18">
+        <v>0</v>
+      </c>
+      <c r="N51" s="18">
+        <v>1</v>
+      </c>
+      <c r="O51" s="18">
         <v>1</v>
       </c>
     </row>
@@ -45656,34 +45669,34 @@
       <c r="E52" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="19" t="s">
         <v>1781</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>1782</v>
       </c>
-      <c r="H52" s="19">
-        <v>0</v>
-      </c>
-      <c r="I52" s="19">
-        <v>0</v>
-      </c>
-      <c r="J52" s="19">
-        <v>0</v>
-      </c>
-      <c r="K52" s="19">
-        <v>1</v>
-      </c>
-      <c r="L52" s="19">
-        <v>0</v>
-      </c>
-      <c r="M52" s="19">
-        <v>1</v>
-      </c>
-      <c r="N52" s="19">
-        <v>0</v>
-      </c>
-      <c r="O52" s="19">
+      <c r="H52" s="18">
+        <v>0</v>
+      </c>
+      <c r="I52" s="18">
+        <v>0</v>
+      </c>
+      <c r="J52" s="18">
+        <v>0</v>
+      </c>
+      <c r="K52" s="18">
+        <v>1</v>
+      </c>
+      <c r="L52" s="18">
+        <v>0</v>
+      </c>
+      <c r="M52" s="18">
+        <v>1</v>
+      </c>
+      <c r="N52" s="18">
+        <v>0</v>
+      </c>
+      <c r="O52" s="18">
         <v>1</v>
       </c>
     </row>
@@ -45703,34 +45716,34 @@
       <c r="E53" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>1799</v>
       </c>
-      <c r="H53" s="19">
-        <v>1</v>
-      </c>
-      <c r="I53" s="19">
-        <v>1</v>
-      </c>
-      <c r="J53" s="19">
-        <v>1</v>
-      </c>
-      <c r="K53" s="19">
-        <v>1</v>
-      </c>
-      <c r="L53" s="19">
-        <v>1</v>
-      </c>
-      <c r="M53" s="19">
-        <v>0</v>
-      </c>
-      <c r="N53" s="19">
-        <v>0</v>
-      </c>
-      <c r="O53" s="19">
+      <c r="H53" s="18">
+        <v>1</v>
+      </c>
+      <c r="I53" s="18">
+        <v>1</v>
+      </c>
+      <c r="J53" s="18">
+        <v>1</v>
+      </c>
+      <c r="K53" s="18">
+        <v>1</v>
+      </c>
+      <c r="L53" s="18">
+        <v>1</v>
+      </c>
+      <c r="M53" s="18">
+        <v>0</v>
+      </c>
+      <c r="N53" s="18">
+        <v>0</v>
+      </c>
+      <c r="O53" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45750,34 +45763,34 @@
       <c r="E54" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="19" t="s">
         <v>327</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>1803</v>
       </c>
-      <c r="H54" s="19">
-        <v>1</v>
-      </c>
-      <c r="I54" s="19">
-        <v>1</v>
-      </c>
-      <c r="J54" s="19">
-        <v>1</v>
-      </c>
-      <c r="K54" s="19">
-        <v>1</v>
-      </c>
-      <c r="L54" s="19">
-        <v>0</v>
-      </c>
-      <c r="M54" s="19">
-        <v>0</v>
-      </c>
-      <c r="N54" s="19">
-        <v>0</v>
-      </c>
-      <c r="O54" s="19">
+      <c r="H54" s="18">
+        <v>1</v>
+      </c>
+      <c r="I54" s="18">
+        <v>1</v>
+      </c>
+      <c r="J54" s="18">
+        <v>1</v>
+      </c>
+      <c r="K54" s="18">
+        <v>1</v>
+      </c>
+      <c r="L54" s="18">
+        <v>0</v>
+      </c>
+      <c r="M54" s="18">
+        <v>0</v>
+      </c>
+      <c r="N54" s="18">
+        <v>0</v>
+      </c>
+      <c r="O54" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45797,34 +45810,34 @@
       <c r="E55" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>1820</v>
       </c>
-      <c r="H55" s="19">
-        <v>1</v>
-      </c>
-      <c r="I55" s="19">
-        <v>1</v>
-      </c>
-      <c r="J55" s="19">
-        <v>1</v>
-      </c>
-      <c r="K55" s="19">
-        <v>1</v>
-      </c>
-      <c r="L55" s="19">
-        <v>1</v>
-      </c>
-      <c r="M55" s="19">
-        <v>0</v>
-      </c>
-      <c r="N55" s="19">
-        <v>0</v>
-      </c>
-      <c r="O55" s="19">
+      <c r="H55" s="18">
+        <v>1</v>
+      </c>
+      <c r="I55" s="18">
+        <v>1</v>
+      </c>
+      <c r="J55" s="18">
+        <v>1</v>
+      </c>
+      <c r="K55" s="18">
+        <v>1</v>
+      </c>
+      <c r="L55" s="18">
+        <v>1</v>
+      </c>
+      <c r="M55" s="18">
+        <v>0</v>
+      </c>
+      <c r="N55" s="18">
+        <v>0</v>
+      </c>
+      <c r="O55" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45850,28 +45863,28 @@
       <c r="G56" s="6" t="s">
         <v>1877</v>
       </c>
-      <c r="H56" s="19">
-        <v>1</v>
-      </c>
-      <c r="I56" s="19">
-        <v>1</v>
-      </c>
-      <c r="J56" s="19">
-        <v>1</v>
-      </c>
-      <c r="K56" s="19">
-        <v>1</v>
-      </c>
-      <c r="L56" s="19">
-        <v>0</v>
-      </c>
-      <c r="M56" s="19">
-        <v>0</v>
-      </c>
-      <c r="N56" s="19">
-        <v>0</v>
-      </c>
-      <c r="O56" s="19">
+      <c r="H56" s="18">
+        <v>1</v>
+      </c>
+      <c r="I56" s="18">
+        <v>1</v>
+      </c>
+      <c r="J56" s="18">
+        <v>1</v>
+      </c>
+      <c r="K56" s="18">
+        <v>1</v>
+      </c>
+      <c r="L56" s="18">
+        <v>0</v>
+      </c>
+      <c r="M56" s="18">
+        <v>0</v>
+      </c>
+      <c r="N56" s="18">
+        <v>0</v>
+      </c>
+      <c r="O56" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45897,28 +45910,28 @@
       <c r="G57" s="6" t="s">
         <v>1930</v>
       </c>
-      <c r="H57" s="19">
-        <v>1</v>
-      </c>
-      <c r="I57" s="19">
-        <v>1</v>
-      </c>
-      <c r="J57" s="19">
-        <v>1</v>
-      </c>
-      <c r="K57" s="19">
-        <v>1</v>
-      </c>
-      <c r="L57" s="19">
-        <v>0</v>
-      </c>
-      <c r="M57" s="19">
-        <v>0</v>
-      </c>
-      <c r="N57" s="19">
-        <v>0</v>
-      </c>
-      <c r="O57" s="19">
+      <c r="H57" s="18">
+        <v>1</v>
+      </c>
+      <c r="I57" s="18">
+        <v>1</v>
+      </c>
+      <c r="J57" s="18">
+        <v>1</v>
+      </c>
+      <c r="K57" s="18">
+        <v>1</v>
+      </c>
+      <c r="L57" s="18">
+        <v>0</v>
+      </c>
+      <c r="M57" s="18">
+        <v>0</v>
+      </c>
+      <c r="N57" s="18">
+        <v>0</v>
+      </c>
+      <c r="O57" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45944,28 +45957,28 @@
       <c r="G58" s="6" t="s">
         <v>1947</v>
       </c>
-      <c r="H58" s="19">
-        <v>1</v>
-      </c>
-      <c r="I58" s="19">
-        <v>1</v>
-      </c>
-      <c r="J58" s="19">
-        <v>1</v>
-      </c>
-      <c r="K58" s="19">
-        <v>1</v>
-      </c>
-      <c r="L58" s="19">
-        <v>0</v>
-      </c>
-      <c r="M58" s="19">
-        <v>0</v>
-      </c>
-      <c r="N58" s="19">
-        <v>0</v>
-      </c>
-      <c r="O58" s="19">
+      <c r="H58" s="18">
+        <v>1</v>
+      </c>
+      <c r="I58" s="18">
+        <v>1</v>
+      </c>
+      <c r="J58" s="18">
+        <v>1</v>
+      </c>
+      <c r="K58" s="18">
+        <v>1</v>
+      </c>
+      <c r="L58" s="18">
+        <v>0</v>
+      </c>
+      <c r="M58" s="18">
+        <v>0</v>
+      </c>
+      <c r="N58" s="18">
+        <v>0</v>
+      </c>
+      <c r="O58" s="18">
         <v>0</v>
       </c>
     </row>
@@ -45985,34 +45998,34 @@
       <c r="E59" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="19" t="s">
         <v>327</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>1951</v>
       </c>
-      <c r="H59" s="19">
-        <v>1</v>
-      </c>
-      <c r="I59" s="19">
-        <v>1</v>
-      </c>
-      <c r="J59" s="19">
-        <v>1</v>
-      </c>
-      <c r="K59" s="19">
-        <v>1</v>
-      </c>
-      <c r="L59" s="19">
-        <v>0</v>
-      </c>
-      <c r="M59" s="19">
-        <v>0</v>
-      </c>
-      <c r="N59" s="19">
-        <v>0</v>
-      </c>
-      <c r="O59" s="19">
+      <c r="H59" s="18">
+        <v>1</v>
+      </c>
+      <c r="I59" s="18">
+        <v>1</v>
+      </c>
+      <c r="J59" s="18">
+        <v>1</v>
+      </c>
+      <c r="K59" s="18">
+        <v>1</v>
+      </c>
+      <c r="L59" s="18">
+        <v>0</v>
+      </c>
+      <c r="M59" s="18">
+        <v>0</v>
+      </c>
+      <c r="N59" s="18">
+        <v>0</v>
+      </c>
+      <c r="O59" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46038,28 +46051,28 @@
       <c r="G60" s="6" t="s">
         <v>1955</v>
       </c>
-      <c r="H60" s="19">
-        <v>1</v>
-      </c>
-      <c r="I60" s="19">
-        <v>0</v>
-      </c>
-      <c r="J60" s="19">
-        <v>0</v>
-      </c>
-      <c r="K60" s="19">
-        <v>1</v>
-      </c>
-      <c r="L60" s="19">
-        <v>0</v>
-      </c>
-      <c r="M60" s="19">
-        <v>0</v>
-      </c>
-      <c r="N60" s="19">
-        <v>0</v>
-      </c>
-      <c r="O60" s="19">
+      <c r="H60" s="18">
+        <v>1</v>
+      </c>
+      <c r="I60" s="18">
+        <v>0</v>
+      </c>
+      <c r="J60" s="18">
+        <v>0</v>
+      </c>
+      <c r="K60" s="18">
+        <v>1</v>
+      </c>
+      <c r="L60" s="18">
+        <v>0</v>
+      </c>
+      <c r="M60" s="18">
+        <v>0</v>
+      </c>
+      <c r="N60" s="18">
+        <v>0</v>
+      </c>
+      <c r="O60" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46079,34 +46092,34 @@
       <c r="E61" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F61" s="19" t="s">
         <v>1781</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>2021</v>
       </c>
-      <c r="H61" s="19">
-        <v>0</v>
-      </c>
-      <c r="I61" s="19">
-        <v>0</v>
-      </c>
-      <c r="J61" s="19">
-        <v>0</v>
-      </c>
-      <c r="K61" s="19">
-        <v>1</v>
-      </c>
-      <c r="L61" s="19">
-        <v>0</v>
-      </c>
-      <c r="M61" s="19">
-        <v>1</v>
-      </c>
-      <c r="N61" s="19">
-        <v>0</v>
-      </c>
-      <c r="O61" s="19">
+      <c r="H61" s="18">
+        <v>0</v>
+      </c>
+      <c r="I61" s="18">
+        <v>0</v>
+      </c>
+      <c r="J61" s="18">
+        <v>0</v>
+      </c>
+      <c r="K61" s="18">
+        <v>1</v>
+      </c>
+      <c r="L61" s="18">
+        <v>0</v>
+      </c>
+      <c r="M61" s="18">
+        <v>1</v>
+      </c>
+      <c r="N61" s="18">
+        <v>0</v>
+      </c>
+      <c r="O61" s="18">
         <v>1</v>
       </c>
     </row>
@@ -46132,28 +46145,28 @@
       <c r="G62" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="H62" s="19">
-        <v>1</v>
-      </c>
-      <c r="I62" s="19">
-        <v>1</v>
-      </c>
-      <c r="J62" s="19">
-        <v>1</v>
-      </c>
-      <c r="K62" s="19">
-        <v>1</v>
-      </c>
-      <c r="L62" s="19">
-        <v>1</v>
-      </c>
-      <c r="M62" s="19">
-        <v>0</v>
-      </c>
-      <c r="N62" s="19">
-        <v>0</v>
-      </c>
-      <c r="O62" s="19">
+      <c r="H62" s="18">
+        <v>1</v>
+      </c>
+      <c r="I62" s="18">
+        <v>1</v>
+      </c>
+      <c r="J62" s="18">
+        <v>1</v>
+      </c>
+      <c r="K62" s="18">
+        <v>1</v>
+      </c>
+      <c r="L62" s="18">
+        <v>1</v>
+      </c>
+      <c r="M62" s="18">
+        <v>0</v>
+      </c>
+      <c r="N62" s="18">
+        <v>0</v>
+      </c>
+      <c r="O62" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46173,34 +46186,34 @@
       <c r="E63" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>2070</v>
       </c>
-      <c r="H63" s="19">
-        <v>1</v>
-      </c>
-      <c r="I63" s="19">
-        <v>1</v>
-      </c>
-      <c r="J63" s="19">
-        <v>1</v>
-      </c>
-      <c r="K63" s="19">
-        <v>1</v>
-      </c>
-      <c r="L63" s="19">
-        <v>1</v>
-      </c>
-      <c r="M63" s="19">
-        <v>0</v>
-      </c>
-      <c r="N63" s="19">
-        <v>0</v>
-      </c>
-      <c r="O63" s="19">
+      <c r="H63" s="18">
+        <v>1</v>
+      </c>
+      <c r="I63" s="18">
+        <v>1</v>
+      </c>
+      <c r="J63" s="18">
+        <v>1</v>
+      </c>
+      <c r="K63" s="18">
+        <v>1</v>
+      </c>
+      <c r="L63" s="18">
+        <v>1</v>
+      </c>
+      <c r="M63" s="18">
+        <v>0</v>
+      </c>
+      <c r="N63" s="18">
+        <v>0</v>
+      </c>
+      <c r="O63" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46220,34 +46233,34 @@
       <c r="E64" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="19" t="s">
         <v>435</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>2107</v>
       </c>
-      <c r="H64" s="19">
-        <v>1</v>
-      </c>
-      <c r="I64" s="19">
-        <v>1</v>
-      </c>
-      <c r="J64" s="19">
-        <v>1</v>
-      </c>
-      <c r="K64" s="19">
-        <v>1</v>
-      </c>
-      <c r="L64" s="19">
-        <v>0</v>
-      </c>
-      <c r="M64" s="19">
-        <v>0</v>
-      </c>
-      <c r="N64" s="19">
-        <v>0</v>
-      </c>
-      <c r="O64" s="19">
+      <c r="H64" s="18">
+        <v>1</v>
+      </c>
+      <c r="I64" s="18">
+        <v>1</v>
+      </c>
+      <c r="J64" s="18">
+        <v>1</v>
+      </c>
+      <c r="K64" s="18">
+        <v>1</v>
+      </c>
+      <c r="L64" s="18">
+        <v>0</v>
+      </c>
+      <c r="M64" s="18">
+        <v>0</v>
+      </c>
+      <c r="N64" s="18">
+        <v>0</v>
+      </c>
+      <c r="O64" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46267,34 +46280,34 @@
       <c r="E65" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="19" t="s">
         <v>167</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>2141</v>
       </c>
-      <c r="H65" s="19">
-        <v>1</v>
-      </c>
-      <c r="I65" s="19">
-        <v>0</v>
-      </c>
-      <c r="J65" s="19">
-        <v>1</v>
-      </c>
-      <c r="K65" s="19">
-        <v>1</v>
-      </c>
-      <c r="L65" s="19">
-        <v>1</v>
-      </c>
-      <c r="M65" s="19">
-        <v>0</v>
-      </c>
-      <c r="N65" s="19">
-        <v>0</v>
-      </c>
-      <c r="O65" s="19">
+      <c r="H65" s="18">
+        <v>1</v>
+      </c>
+      <c r="I65" s="18">
+        <v>0</v>
+      </c>
+      <c r="J65" s="18">
+        <v>1</v>
+      </c>
+      <c r="K65" s="18">
+        <v>1</v>
+      </c>
+      <c r="L65" s="18">
+        <v>1</v>
+      </c>
+      <c r="M65" s="18">
+        <v>0</v>
+      </c>
+      <c r="N65" s="18">
+        <v>0</v>
+      </c>
+      <c r="O65" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46314,34 +46327,34 @@
       <c r="E66" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="19" t="s">
         <v>435</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>2173</v>
       </c>
-      <c r="H66" s="19">
-        <v>1</v>
-      </c>
-      <c r="I66" s="19">
-        <v>1</v>
-      </c>
-      <c r="J66" s="19">
-        <v>1</v>
-      </c>
-      <c r="K66" s="19">
-        <v>1</v>
-      </c>
-      <c r="L66" s="19">
-        <v>0</v>
-      </c>
-      <c r="M66" s="19">
-        <v>0</v>
-      </c>
-      <c r="N66" s="19">
-        <v>0</v>
-      </c>
-      <c r="O66" s="19">
+      <c r="H66" s="18">
+        <v>1</v>
+      </c>
+      <c r="I66" s="18">
+        <v>1</v>
+      </c>
+      <c r="J66" s="18">
+        <v>1</v>
+      </c>
+      <c r="K66" s="18">
+        <v>1</v>
+      </c>
+      <c r="L66" s="18">
+        <v>0</v>
+      </c>
+      <c r="M66" s="18">
+        <v>0</v>
+      </c>
+      <c r="N66" s="18">
+        <v>0</v>
+      </c>
+      <c r="O66" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46462,19 +46475,19 @@
       <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>2248</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>2249</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>2250</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>2242</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>2251</v>
       </c>
     </row>
@@ -46500,19 +46513,19 @@
       <c r="G2" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="19">
-        <v>1</v>
-      </c>
-      <c r="I2" s="19">
-        <v>1</v>
-      </c>
-      <c r="J2" s="19">
-        <v>1</v>
-      </c>
-      <c r="K2" s="19">
-        <v>1</v>
-      </c>
-      <c r="L2" s="19">
+      <c r="H2" s="18">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18">
+        <v>1</v>
+      </c>
+      <c r="J2" s="18">
+        <v>1</v>
+      </c>
+      <c r="K2" s="18">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46538,19 +46551,19 @@
       <c r="G3" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19">
-        <v>1</v>
-      </c>
-      <c r="J3" s="19">
-        <v>1</v>
-      </c>
-      <c r="K3" s="19">
-        <v>1</v>
-      </c>
-      <c r="L3" s="19">
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+      <c r="L3" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46576,19 +46589,19 @@
       <c r="G4" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="H4" s="19">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19">
-        <v>1</v>
-      </c>
-      <c r="J4" s="19">
-        <v>1</v>
-      </c>
-      <c r="K4" s="19">
-        <v>1</v>
-      </c>
-      <c r="L4" s="19">
+      <c r="H4" s="18">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1</v>
+      </c>
+      <c r="L4" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46614,19 +46627,19 @@
       <c r="G5" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19">
-        <v>1</v>
-      </c>
-      <c r="L5" s="19">
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46652,19 +46665,19 @@
       <c r="G6" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="H6" s="19">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19">
-        <v>1</v>
-      </c>
-      <c r="J6" s="19">
-        <v>1</v>
-      </c>
-      <c r="K6" s="19">
-        <v>1</v>
-      </c>
-      <c r="L6" s="19">
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46690,19 +46703,19 @@
       <c r="G7" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-      <c r="L7" s="19">
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46728,19 +46741,19 @@
       <c r="G8" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="H8" s="19">
-        <v>1</v>
-      </c>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="19">
-        <v>1</v>
-      </c>
-      <c r="K8" s="19">
-        <v>1</v>
-      </c>
-      <c r="L8" s="19">
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46766,19 +46779,19 @@
       <c r="G9" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19">
-        <v>1</v>
-      </c>
-      <c r="L9" s="19">
+      <c r="H9" s="18">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18">
+        <v>1</v>
+      </c>
+      <c r="L9" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46798,25 +46811,25 @@
       <c r="E10" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>718</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="H10" s="19">
-        <v>1</v>
-      </c>
-      <c r="I10" s="19">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19">
-        <v>1</v>
-      </c>
-      <c r="K10" s="19">
-        <v>1</v>
-      </c>
-      <c r="L10" s="19">
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
+      <c r="J10" s="18">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1</v>
+      </c>
+      <c r="L10" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46836,25 +46849,25 @@
       <c r="E11" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>805</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1</v>
-      </c>
-      <c r="L11" s="19">
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
+        <v>1</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1</v>
+      </c>
+      <c r="L11" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46874,25 +46887,25 @@
       <c r="E12" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>639</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="H12" s="19">
-        <v>1</v>
-      </c>
-      <c r="I12" s="19">
-        <v>1</v>
-      </c>
-      <c r="J12" s="19">
-        <v>1</v>
-      </c>
-      <c r="K12" s="19">
-        <v>1</v>
-      </c>
-      <c r="L12" s="19">
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1</v>
+      </c>
+      <c r="L12" s="18">
         <v>1</v>
       </c>
     </row>
@@ -46912,25 +46925,25 @@
       <c r="E13" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>805</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19">
-        <v>1</v>
-      </c>
-      <c r="L13" s="19">
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1</v>
+      </c>
+      <c r="L13" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46950,25 +46963,25 @@
       <c r="E14" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>639</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="H14" s="19">
-        <v>1</v>
-      </c>
-      <c r="I14" s="19">
-        <v>1</v>
-      </c>
-      <c r="J14" s="19">
-        <v>1</v>
-      </c>
-      <c r="K14" s="19">
-        <v>1</v>
-      </c>
-      <c r="L14" s="19">
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1</v>
+      </c>
+      <c r="L14" s="18">
         <v>0</v>
       </c>
     </row>
@@ -46988,25 +47001,25 @@
       <c r="E15" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>805</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>1034</v>
       </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1</v>
-      </c>
-      <c r="K15" s="19">
-        <v>1</v>
-      </c>
-      <c r="L15" s="19">
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1</v>
+      </c>
+      <c r="L15" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47032,19 +47045,19 @@
       <c r="G16" s="6" t="s">
         <v>1051</v>
       </c>
-      <c r="H16" s="19">
-        <v>1</v>
-      </c>
-      <c r="I16" s="19">
-        <v>1</v>
-      </c>
-      <c r="J16" s="19">
-        <v>1</v>
-      </c>
-      <c r="K16" s="19">
-        <v>1</v>
-      </c>
-      <c r="L16" s="19">
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1</v>
+      </c>
+      <c r="K16" s="18">
+        <v>1</v>
+      </c>
+      <c r="L16" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47070,19 +47083,19 @@
       <c r="G17" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
-        <v>1</v>
-      </c>
-      <c r="L17" s="19">
+      <c r="H17" s="18">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1</v>
+      </c>
+      <c r="K17" s="18">
+        <v>1</v>
+      </c>
+      <c r="L17" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47108,19 +47121,19 @@
       <c r="G18" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="H18" s="19">
-        <v>1</v>
-      </c>
-      <c r="I18" s="19">
-        <v>1</v>
-      </c>
-      <c r="J18" s="19">
-        <v>1</v>
-      </c>
-      <c r="K18" s="19">
-        <v>1</v>
-      </c>
-      <c r="L18" s="19">
+      <c r="H18" s="18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47144,19 +47157,19 @@
         <v>380</v>
       </c>
       <c r="G19" s="12"/>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19">
-        <v>1</v>
-      </c>
-      <c r="L19" s="19">
+      <c r="H19" s="18">
+        <v>1</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <v>1</v>
+      </c>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
+      <c r="L19" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47182,19 +47195,19 @@
       <c r="G20" s="6" t="s">
         <v>1328</v>
       </c>
-      <c r="H20" s="19">
-        <v>1</v>
-      </c>
-      <c r="I20" s="19">
-        <v>1</v>
-      </c>
-      <c r="J20" s="19">
-        <v>1</v>
-      </c>
-      <c r="K20" s="19">
-        <v>1</v>
-      </c>
-      <c r="L20" s="19">
+      <c r="H20" s="18">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
+      <c r="J20" s="18">
+        <v>1</v>
+      </c>
+      <c r="K20" s="18">
+        <v>1</v>
+      </c>
+      <c r="L20" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47220,19 +47233,19 @@
       <c r="G21" s="6" t="s">
         <v>1340</v>
       </c>
-      <c r="H21" s="19">
-        <v>1</v>
-      </c>
-      <c r="I21" s="19">
-        <v>1</v>
-      </c>
-      <c r="J21" s="19">
-        <v>1</v>
-      </c>
-      <c r="K21" s="19">
-        <v>1</v>
-      </c>
-      <c r="L21" s="19">
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
+      <c r="L21" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47258,19 +47271,19 @@
       <c r="G22" s="6" t="s">
         <v>1385</v>
       </c>
-      <c r="H22" s="19">
-        <v>1</v>
-      </c>
-      <c r="I22" s="19">
-        <v>1</v>
-      </c>
-      <c r="J22" s="19">
-        <v>1</v>
-      </c>
-      <c r="K22" s="19">
-        <v>1</v>
-      </c>
-      <c r="L22" s="19">
+      <c r="H22" s="18">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+      <c r="J22" s="18">
+        <v>1</v>
+      </c>
+      <c r="K22" s="18">
+        <v>1</v>
+      </c>
+      <c r="L22" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47290,25 +47303,25 @@
       <c r="E23" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>1513</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>1514</v>
       </c>
-      <c r="H23" s="19">
-        <v>1</v>
-      </c>
-      <c r="I23" s="19">
-        <v>1</v>
-      </c>
-      <c r="J23" s="19">
-        <v>1</v>
-      </c>
-      <c r="K23" s="19">
-        <v>1</v>
-      </c>
-      <c r="L23" s="19">
+      <c r="H23" s="18">
+        <v>1</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1</v>
+      </c>
+      <c r="K23" s="18">
+        <v>1</v>
+      </c>
+      <c r="L23" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47334,19 +47347,19 @@
       <c r="G24" s="6" t="s">
         <v>1739</v>
       </c>
-      <c r="H24" s="19">
-        <v>1</v>
-      </c>
-      <c r="I24" s="19">
-        <v>1</v>
-      </c>
-      <c r="J24" s="19">
-        <v>1</v>
-      </c>
-      <c r="K24" s="19">
-        <v>1</v>
-      </c>
-      <c r="L24" s="19">
+      <c r="H24" s="18">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18">
+        <v>1</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1</v>
+      </c>
+      <c r="L24" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47366,25 +47379,25 @@
       <c r="E25" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>718</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>1903</v>
       </c>
-      <c r="H25" s="19">
-        <v>1</v>
-      </c>
-      <c r="I25" s="19">
-        <v>1</v>
-      </c>
-      <c r="J25" s="19">
-        <v>1</v>
-      </c>
-      <c r="K25" s="19">
-        <v>1</v>
-      </c>
-      <c r="L25" s="19">
+      <c r="H25" s="18">
+        <v>1</v>
+      </c>
+      <c r="I25" s="18">
+        <v>1</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
+      <c r="L25" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47410,19 +47423,19 @@
       <c r="G26" s="6" t="s">
         <v>1981</v>
       </c>
-      <c r="H26" s="19">
-        <v>1</v>
-      </c>
-      <c r="I26" s="19">
-        <v>1</v>
-      </c>
-      <c r="J26" s="19">
-        <v>1</v>
-      </c>
-      <c r="K26" s="19">
-        <v>1</v>
-      </c>
-      <c r="L26" s="19">
+      <c r="H26" s="18">
+        <v>1</v>
+      </c>
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1</v>
+      </c>
+      <c r="K26" s="18">
+        <v>1</v>
+      </c>
+      <c r="L26" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47448,19 +47461,19 @@
       <c r="G27" s="6" t="s">
         <v>1989</v>
       </c>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="19">
-        <v>1</v>
-      </c>
-      <c r="J27" s="19">
-        <v>1</v>
-      </c>
-      <c r="K27" s="19">
-        <v>1</v>
-      </c>
-      <c r="L27" s="19">
+      <c r="H27" s="18">
+        <v>1</v>
+      </c>
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1</v>
+      </c>
+      <c r="K27" s="18">
+        <v>1</v>
+      </c>
+      <c r="L27" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47480,25 +47493,25 @@
       <c r="E28" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>380</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>2017</v>
       </c>
-      <c r="H28" s="19">
-        <v>1</v>
-      </c>
-      <c r="I28" s="19">
-        <v>1</v>
-      </c>
-      <c r="J28" s="19">
-        <v>1</v>
-      </c>
-      <c r="K28" s="19">
-        <v>1</v>
-      </c>
-      <c r="L28" s="19">
+      <c r="H28" s="18">
+        <v>1</v>
+      </c>
+      <c r="I28" s="18">
+        <v>1</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1</v>
+      </c>
+      <c r="K28" s="18">
+        <v>1</v>
+      </c>
+      <c r="L28" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47524,19 +47537,19 @@
       <c r="G29" s="6" t="s">
         <v>2094</v>
       </c>
-      <c r="H29" s="19">
-        <v>1</v>
-      </c>
-      <c r="I29" s="19">
-        <v>1</v>
-      </c>
-      <c r="J29" s="19">
-        <v>1</v>
-      </c>
-      <c r="K29" s="19">
-        <v>1</v>
-      </c>
-      <c r="L29" s="19">
+      <c r="H29" s="18">
+        <v>1</v>
+      </c>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1</v>
+      </c>
+      <c r="L29" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47556,25 +47569,25 @@
       <c r="E30" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="19" t="s">
         <v>275</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>2177</v>
       </c>
-      <c r="H30" s="19">
-        <v>1</v>
-      </c>
-      <c r="I30" s="19">
-        <v>1</v>
-      </c>
-      <c r="J30" s="19">
-        <v>1</v>
-      </c>
-      <c r="K30" s="19">
-        <v>1</v>
-      </c>
-      <c r="L30" s="19">
+      <c r="H30" s="18">
+        <v>1</v>
+      </c>
+      <c r="I30" s="18">
+        <v>1</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1</v>
+      </c>
+      <c r="K30" s="18">
+        <v>1</v>
+      </c>
+      <c r="L30" s="18">
         <v>0</v>
       </c>
     </row>
@@ -47594,25 +47607,25 @@
       <c r="E31" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>1050</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>2191</v>
       </c>
-      <c r="H31" s="19">
-        <v>1</v>
-      </c>
-      <c r="I31" s="19">
-        <v>1</v>
-      </c>
-      <c r="J31" s="19">
-        <v>1</v>
-      </c>
-      <c r="K31" s="19">
-        <v>1</v>
-      </c>
-      <c r="L31" s="19">
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+      <c r="I31" s="18">
+        <v>1</v>
+      </c>
+      <c r="J31" s="18">
+        <v>1</v>
+      </c>
+      <c r="K31" s="18">
+        <v>1</v>
+      </c>
+      <c r="L31" s="18">
         <v>0</v>
       </c>
     </row>

--- a/DatasetS1_dentition.xlsx
+++ b/DatasetS1_dentition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DanielPaluh/Dropbox (UFL)/Edentulous_frogs/Revision_ACCEPTED/final data and scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A001BA48-CE79-0746-8693-99D1F4135997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BC9B2F-3A65-9C4D-94EA-5D36C542C0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="31420" windowHeight="21140" xr2:uid="{BEC4CB36-D627-024D-94D6-84280A0FD2DF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{BEC4CB36-D627-024D-94D6-84280A0FD2DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Amphibians_524species" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7917" uniqueCount="2289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7917" uniqueCount="2293">
   <si>
     <t>Genus</t>
   </si>
@@ -6910,13 +6910,25 @@
   </si>
   <si>
     <t>cas:herp:262731</t>
+  </si>
+  <si>
+    <t>amnh:herpetology:a-159115</t>
+  </si>
+  <si>
+    <t>rom:reptiles and amphibians:44356</t>
+  </si>
+  <si>
+    <t>cas:herp:121263</t>
+  </si>
+  <si>
+    <t>uf:herp:167747</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7016,12 +7028,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -7094,9 +7100,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7414,7 +7420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9FADE6-11E4-C04D-B56E-08B51DB76464}">
   <dimension ref="A1:N555"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="84" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -10493,8 +10499,8 @@
       <c r="C81" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="D81" s="24" t="s">
-        <v>2279</v>
+      <c r="D81" s="26" t="s">
+        <v>2282</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>272</v>
@@ -13382,7 +13388,7 @@
         <v>700</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>702</v>
+        <v>2292</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>13</v>
@@ -17828,7 +17834,7 @@
         <v>1203</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1205</v>
+        <v>2291</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>13</v>
@@ -21210,7 +21216,7 @@
         <v>1563</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1564</v>
+        <v>2290</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>13</v>
@@ -23566,7 +23572,7 @@
         <v>1817</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1818</v>
+        <v>2289</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>13</v>
@@ -36459,7 +36465,7 @@
       <c r="B244" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="C244" s="26" t="s">
+      <c r="C244" s="25" t="s">
         <v>1276</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -43513,7 +43519,7 @@
       <c r="C2" s="19" t="s">
         <v>1549</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>2250</v>
       </c>
       <c r="E2" s="12" t="s">
